--- a/Optimisation3.xlsx
+++ b/Optimisation3.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/PhD project infomation/Data/Code/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{CF3597F4-12BF-4017-9FCA-8DB04932F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1D7E364-BBE6-41A7-B905-501A90138D10}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{CF3597F4-12BF-4017-9FCA-8DB04932F15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602181C8-0AD1-42AB-8D1E-914EA05C928E}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="2532" windowWidth="17280" windowHeight="9018" activeTab="1" xr2:uid="{DBFCFACE-84D8-46B8-8005-634FCA87B3AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBFCFACE-84D8-46B8-8005-634FCA87B3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +79,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Experiment</t>
   </si>
 </sst>
 </file>
@@ -139,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,13 +433,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC0F599-52FA-4188-9CBD-8701FBDEBAD4}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O41" sqref="A1:O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.34</v>
       </c>
@@ -537,7 +533,7 @@
         <v>5.2726052458604802E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.1999999999999993</v>
       </c>
@@ -584,7 +580,7 @@
         <v>0.26601424434056198</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.4600000000000009</v>
       </c>
@@ -631,7 +627,7 @@
         <v>5.9841256330415003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.41</v>
       </c>
@@ -678,7 +674,7 @@
         <v>0.134996556235561</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.92</v>
       </c>
@@ -725,7 +721,7 @@
         <v>0.20001773960789501</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.5</v>
       </c>
@@ -772,7 +768,7 @@
         <v>0.213249964368633</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.64</v>
       </c>
@@ -819,7 +815,7 @@
         <v>0.20703327263302501</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.7555715121512705</v>
       </c>
@@ -866,7 +862,7 @@
         <v>2.7832774829359801E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6.95216208622554</v>
       </c>
@@ -913,7 +909,7 @@
         <v>2.37518346622498E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.8787944719772502</v>
       </c>
@@ -960,7 +956,7 @@
         <v>2.8949096073223799E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.9993250467253105</v>
       </c>
@@ -1007,7 +1003,7 @@
         <v>2.8755250968248498E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.1092306980693101</v>
       </c>
@@ -1054,7 +1050,7 @@
         <v>2.38652445574252E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.3612221745419699</v>
       </c>
@@ -1101,7 +1097,7 @@
         <v>2.7721444676691399E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.67023237412144</v>
       </c>
@@ -1148,7 +1144,7 @@
         <v>5.3286187515280803E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.7573538741274701</v>
       </c>
@@ -1195,7 +1191,7 @@
         <v>2.3217123177412601E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.51852818725445</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>6.8612122572158901E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.00002857610788</v>
       </c>
@@ -1289,7 +1285,7 @@
         <v>0.18812737339409499</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.4857319529911397</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>3.9521228294873499E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.9972093775344</v>
       </c>
@@ -1383,7 +1379,7 @@
         <v>3.4755654020646398E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.9820466373515195</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>7.6196470080436798E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.0015842202551699</v>
       </c>
@@ -1477,7 +1473,7 @@
         <v>9.2047965015789601E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9.9988841330835108</v>
       </c>
@@ -1524,7 +1520,7 @@
         <v>0.25388939362427199</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.8928432922253302</v>
       </c>
@@ -1571,7 +1567,7 @@
         <v>4.9986780071567802E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.0014828530646001</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>5.4307718489680003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.9999680190801001</v>
       </c>
@@ -1665,7 +1661,7 @@
         <v>0.17536392791118899</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9.9999866455208899</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>0.136447286547665</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9.9376427148186295</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>2.7322668257914101E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.9595786376442597</v>
       </c>
@@ -1806,7 +1802,7 @@
         <v>2.29858612168506E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9.9999934353546198</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>0.165509213381802</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.00024501326256</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>0.16713139032223201</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9.9999065320339806</v>
       </c>
@@ -1947,7 +1943,7 @@
         <v>0.159822498510793</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.69832772502164</v>
       </c>
@@ -1994,7 +1990,7 @@
         <v>4.5293626596981197E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9.9996497210941602</v>
       </c>
@@ -2041,7 +2037,7 @@
         <v>4.4250458420548297E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9.99998520886761</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v>3.7780088734599503E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9.9999064882008604</v>
       </c>
@@ -2135,7 +2131,7 @@
         <v>5.45472388696688E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.0079640035641702</v>
       </c>
@@ -2182,7 +2178,7 @@
         <v>6.0087280081958197E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9.9977355166380395</v>
       </c>
@@ -2229,7 +2225,7 @@
         <v>0.109057417797279</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8.0126887492763004</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>3.2527406568032602E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.0725893041184</v>
       </c>
@@ -2323,7 +2319,7 @@
         <v>0.20657014757702299</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.0339846802684702</v>
       </c>
@@ -2367,1210 +2363,6 @@
         <v>0.21428211282831799</v>
       </c>
       <c r="O41">
-        <v>4.62087464990278E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2B2233-14F3-42ED-AF20-EABEDB0159DB}">
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:I41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.34</v>
-      </c>
-      <c r="C2">
-        <v>29.31</v>
-      </c>
-      <c r="D2">
-        <v>9.34</v>
-      </c>
-      <c r="E2">
-        <v>-0.13047386363618599</v>
-      </c>
-      <c r="F2">
-        <v>-7</v>
-      </c>
-      <c r="G2">
-        <v>11.599731540893</v>
-      </c>
-      <c r="H2">
-        <v>0.21315996638343501</v>
-      </c>
-      <c r="I2">
-        <v>5.2726052458604802E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C3">
-        <v>47.98</v>
-      </c>
-      <c r="D3">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="E3">
-        <v>1.5449039940646601</v>
-      </c>
-      <c r="F3">
-        <v>-7</v>
-      </c>
-      <c r="G3">
-        <v>7.5413019507897303</v>
-      </c>
-      <c r="H3">
-        <v>0.44601749073181401</v>
-      </c>
-      <c r="I3">
-        <v>0.26601424434056198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="C4">
-        <v>27.32</v>
-      </c>
-      <c r="D4">
-        <v>6.68</v>
-      </c>
-      <c r="E4">
-        <v>3.7978537036062999E-3</v>
-      </c>
-      <c r="F4">
-        <v>-7</v>
-      </c>
-      <c r="G4">
-        <v>13.0397472204723</v>
-      </c>
-      <c r="H4">
-        <v>0.23984686970083599</v>
-      </c>
-      <c r="I4">
-        <v>5.9841256330415003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>6.41</v>
-      </c>
-      <c r="C5">
-        <v>18.41</v>
-      </c>
-      <c r="D5">
-        <v>5.28</v>
-      </c>
-      <c r="E5">
-        <v>-5.4335047001433896</v>
-      </c>
-      <c r="F5">
-        <v>-6</v>
-      </c>
-      <c r="G5">
-        <v>10.8420995146805</v>
-      </c>
-      <c r="H5">
-        <v>-0.52573876717657397</v>
-      </c>
-      <c r="I5">
-        <v>0.134996556235561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4.92</v>
-      </c>
-      <c r="C6">
-        <v>58.65</v>
-      </c>
-      <c r="D6">
-        <v>1.58</v>
-      </c>
-      <c r="E6">
-        <v>0.66773300276136904</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>3.1115707654689801</v>
-      </c>
-      <c r="H6">
-        <v>0.35430479336737403</v>
-      </c>
-      <c r="I6">
-        <v>0.20001773960789501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3.5</v>
-      </c>
-      <c r="C7">
-        <v>12.67</v>
-      </c>
-      <c r="D7">
-        <v>0.98</v>
-      </c>
-      <c r="E7">
-        <v>1.2715107062970701</v>
-      </c>
-      <c r="F7">
-        <v>-7</v>
-      </c>
-      <c r="G7">
-        <v>4.9551388532960701</v>
-      </c>
-      <c r="H7">
-        <v>0.39325209746442102</v>
-      </c>
-      <c r="I7">
-        <v>0.213249964368633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3.64</v>
-      </c>
-      <c r="C8">
-        <v>43.47</v>
-      </c>
-      <c r="D8">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="E8">
-        <v>1.1716371809493</v>
-      </c>
-      <c r="F8">
-        <v>-7</v>
-      </c>
-      <c r="G8">
-        <v>6.8832930079385397</v>
-      </c>
-      <c r="H8">
-        <v>0.38703623576357599</v>
-      </c>
-      <c r="I8">
-        <v>0.20703327263302501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>9.7555715121512705</v>
-      </c>
-      <c r="C9">
-        <v>32.569540220637002</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.9632996051709301E-6</v>
-      </c>
-      <c r="E9">
-        <v>-0.125671044080677</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9">
-        <v>6.1232104624591601</v>
-      </c>
-      <c r="H9">
-        <v>0.188984754146307</v>
-      </c>
-      <c r="I9">
-        <v>2.7832774829359801E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>6.95216208622554</v>
-      </c>
-      <c r="C10">
-        <v>30.820089547203601</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4.764046444E-5</v>
-      </c>
-      <c r="E10">
-        <v>-1.5704366406761299E-3</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <v>5.2254036256949599</v>
-      </c>
-      <c r="H10">
-        <v>0.20351851860593101</v>
-      </c>
-      <c r="I10">
-        <v>2.37518346622498E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4.8787944719772502</v>
-      </c>
-      <c r="C11">
-        <v>31.120654886762502</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.94771900561909E-7</v>
-      </c>
-      <c r="E11">
-        <v>6.25249862623352E-2</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>4.3054765894521703</v>
-      </c>
-      <c r="H11">
-        <v>0.208950949501402</v>
-      </c>
-      <c r="I11">
-        <v>2.8949096073223799E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9.9993250467253105</v>
-      </c>
-      <c r="C12">
-        <v>31.383200543993802</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.5584376454288701E-8</v>
-      </c>
-      <c r="E12">
-        <v>-8.3724812240798294E-2</v>
-      </c>
-      <c r="F12">
-        <v>-7</v>
-      </c>
-      <c r="G12">
-        <v>6.3261552130146601</v>
-      </c>
-      <c r="H12">
-        <v>0.19619925242514599</v>
-      </c>
-      <c r="I12">
-        <v>2.8755250968248498E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>7.1092306980693101</v>
-      </c>
-      <c r="C13">
-        <v>31.420779772075502</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.4799284835730197E-8</v>
-      </c>
-      <c r="E13">
-        <v>-4.0327434784116302E-2</v>
-      </c>
-      <c r="F13">
-        <v>-7</v>
-      </c>
-      <c r="G13">
-        <v>5.2503538026335397</v>
-      </c>
-      <c r="H13">
-        <v>0.19781838952018099</v>
-      </c>
-      <c r="I13">
-        <v>2.38652445574252E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>9.3612221745419699</v>
-      </c>
-      <c r="C14">
-        <v>31.403608579416002</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9.1249316883765403E-6</v>
-      </c>
-      <c r="E14">
-        <v>-7.8579351730819993E-2</v>
-      </c>
-      <c r="F14">
-        <v>-7</v>
-      </c>
-      <c r="G14">
-        <v>6.0987178288721102</v>
-      </c>
-      <c r="H14">
-        <v>0.195937167302491</v>
-      </c>
-      <c r="I14">
-        <v>2.7721444676691399E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>5.67023237412144</v>
-      </c>
-      <c r="C15">
-        <v>34.183465797879798</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7.51547638880138</v>
-      </c>
-      <c r="E15">
-        <v>-7.4104156996281506E-2</v>
-      </c>
-      <c r="F15">
-        <v>-7</v>
-      </c>
-      <c r="G15">
-        <v>11.722961253361801</v>
-      </c>
-      <c r="H15">
-        <v>0.222175610484213</v>
-      </c>
-      <c r="I15">
-        <v>5.3286187515280803E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>6.7573538741274701</v>
-      </c>
-      <c r="C16">
-        <v>31.43731249032</v>
-      </c>
-      <c r="D16">
-        <v>2.3753106184347999E-4</v>
-      </c>
-      <c r="E16">
-        <v>-3.08783940267339E-2</v>
-      </c>
-      <c r="F16">
-        <v>-7</v>
-      </c>
-      <c r="G16">
-        <v>5.10776709903078</v>
-      </c>
-      <c r="H16">
-        <v>0.198587562872832</v>
-      </c>
-      <c r="I16">
-        <v>2.3217123177412601E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>7.51852818725445</v>
-      </c>
-      <c r="C17">
-        <v>31.285976997213002</v>
-      </c>
-      <c r="D17">
-        <v>9.9993213833633003</v>
-      </c>
-      <c r="E17">
-        <v>-0.21415321860237099</v>
-      </c>
-      <c r="F17">
-        <v>-7</v>
-      </c>
-      <c r="G17">
-        <v>15.094666965875</v>
-      </c>
-      <c r="H17">
-        <v>0.21649563775723399</v>
-      </c>
-      <c r="I17">
-        <v>6.8612122572158901E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.00002857610788</v>
-      </c>
-      <c r="C18">
-        <v>25.394304415543001</v>
-      </c>
-      <c r="D18">
-        <v>2.5546377102962599E-4</v>
-      </c>
-      <c r="E18">
-        <v>1.18994732790911</v>
-      </c>
-      <c r="F18">
-        <v>-7</v>
-      </c>
-      <c r="G18">
-        <v>2.1197603257004598</v>
-      </c>
-      <c r="H18">
-        <v>0.36812828591177799</v>
-      </c>
-      <c r="I18">
-        <v>0.18812737339409499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6.4857319529911397</v>
-      </c>
-      <c r="C19">
-        <v>31.029647838201299</v>
-      </c>
-      <c r="D19">
-        <v>3.7713275580950598</v>
-      </c>
-      <c r="E19">
-        <v>-0.21257366241988501</v>
-      </c>
-      <c r="F19">
-        <v>-7</v>
-      </c>
-      <c r="G19">
-        <v>8.6946702248721799</v>
-      </c>
-      <c r="H19">
-        <v>0.18763892182688999</v>
-      </c>
-      <c r="I19">
-        <v>3.9521228294873499E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>9.9972093775344</v>
-      </c>
-      <c r="C20">
-        <v>29.035058148764801</v>
-      </c>
-      <c r="D20">
-        <v>3.7706398326095699E-3</v>
-      </c>
-      <c r="E20">
-        <v>3.3044883593366603E-2</v>
-      </c>
-      <c r="F20">
-        <v>-7</v>
-      </c>
-      <c r="G20">
-        <v>6.5557627259611202</v>
-      </c>
-      <c r="H20">
-        <v>0.21475847615545901</v>
-      </c>
-      <c r="I20">
-        <v>3.4755654020646398E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>9.9820466373515195</v>
-      </c>
-      <c r="C21">
-        <v>36.422881579950797</v>
-      </c>
-      <c r="D21">
-        <v>9.2002057455999996E-4</v>
-      </c>
-      <c r="E21">
-        <v>0.33288106979391902</v>
-      </c>
-      <c r="F21">
-        <v>-7</v>
-      </c>
-      <c r="G21">
-        <v>5.7781481144967604</v>
-      </c>
-      <c r="H21">
-        <v>0.256198957466516</v>
-      </c>
-      <c r="I21">
-        <v>7.6196470080436798E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1.0015842202551699</v>
-      </c>
-      <c r="C22">
-        <v>34.394398414333303</v>
-      </c>
-      <c r="D22">
-        <v>5.5231897137302595E-4</v>
-      </c>
-      <c r="E22">
-        <v>0.55128024117337604</v>
-      </c>
-      <c r="F22">
-        <v>-7</v>
-      </c>
-      <c r="G22">
-        <v>2.0583043447523202</v>
-      </c>
-      <c r="H22">
-        <v>0.27204885107780702</v>
-      </c>
-      <c r="I22">
-        <v>9.2047965015789601E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>9.9988841330835108</v>
-      </c>
-      <c r="C23">
-        <v>5.0003507660815396</v>
-      </c>
-      <c r="D23">
-        <v>9.9931778102429494</v>
-      </c>
-      <c r="E23">
-        <v>-6.3782099458234898</v>
-      </c>
-      <c r="F23">
-        <v>-5</v>
-      </c>
-      <c r="G23">
-        <v>18.1413808830542</v>
-      </c>
-      <c r="H23">
-        <v>-0.57426286014830397</v>
-      </c>
-      <c r="I23">
-        <v>0.25388939362427199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>4.8928432922253302</v>
-      </c>
-      <c r="C24">
-        <v>29.045077874009799</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6.6856702856430593E-5</v>
-      </c>
-      <c r="E24">
-        <v>0.20031899129810199</v>
-      </c>
-      <c r="F24">
-        <v>-7</v>
-      </c>
-      <c r="G24">
-        <v>4.38656490290757</v>
-      </c>
-      <c r="H24">
-        <v>0.22998866840676799</v>
-      </c>
-      <c r="I24">
-        <v>4.9986780071567802E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1.0014828530646001</v>
-      </c>
-      <c r="C25">
-        <v>32.919970362944497</v>
-      </c>
-      <c r="D25">
-        <v>9.9915386936155492</v>
-      </c>
-      <c r="E25">
-        <v>-0.24251971066922001</v>
-      </c>
-      <c r="F25">
-        <v>-7</v>
-      </c>
-      <c r="G25">
-        <v>11.947698067729601</v>
-      </c>
-      <c r="H25">
-        <v>0.197934905152721</v>
-      </c>
-      <c r="I25">
-        <v>5.4307718489680003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>9.9999680190801001</v>
-      </c>
-      <c r="C26">
-        <v>22.552814178376401</v>
-      </c>
-      <c r="D26" s="1">
-        <v>9.9998713746527201</v>
-      </c>
-      <c r="E26">
-        <v>0.65411875152942101</v>
-      </c>
-      <c r="F26">
-        <v>-7</v>
-      </c>
-      <c r="G26">
-        <v>16.994145339990801</v>
-      </c>
-      <c r="H26">
-        <v>0.35537124357698902</v>
-      </c>
-      <c r="I26">
-        <v>0.17536392791118899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>9.9999866455208899</v>
-      </c>
-      <c r="C27">
-        <v>37.407693731407001</v>
-      </c>
-      <c r="D27">
-        <v>9.9999978214705791</v>
-      </c>
-      <c r="E27">
-        <v>0.46753879562122003</v>
-      </c>
-      <c r="F27">
-        <v>-7</v>
-      </c>
-      <c r="G27">
-        <v>14.5896227849861</v>
-      </c>
-      <c r="H27">
-        <v>0.316453567110901</v>
-      </c>
-      <c r="I27">
-        <v>0.136447286547665</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>9.9376427148186295</v>
-      </c>
-      <c r="C28">
-        <v>34.274421389314703</v>
-      </c>
-      <c r="D28">
-        <v>1.43527629425695E-2</v>
-      </c>
-      <c r="E28">
-        <v>-5.5306504360573203E-2</v>
-      </c>
-      <c r="F28">
-        <v>-7</v>
-      </c>
-      <c r="G28">
-        <v>6.0109870167411001</v>
-      </c>
-      <c r="H28">
-        <v>0.19902928022275601</v>
-      </c>
-      <c r="I28">
-        <v>2.7322668257914101E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>6.9595786376442597</v>
-      </c>
-      <c r="C29">
-        <v>33.414220094482303</v>
-      </c>
-      <c r="D29">
-        <v>1.72448868869252E-4</v>
-      </c>
-      <c r="E29">
-        <v>-0.105709201386533</v>
-      </c>
-      <c r="F29">
-        <v>-7</v>
-      </c>
-      <c r="G29">
-        <v>5.0568894677071299</v>
-      </c>
-      <c r="H29">
-        <v>0.187131657906419</v>
-      </c>
-      <c r="I29">
-        <v>2.29858612168506E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>9.9999934353546198</v>
-      </c>
-      <c r="C30">
-        <v>15.532979145509399</v>
-      </c>
-      <c r="D30">
-        <v>9.9998764759683105</v>
-      </c>
-      <c r="E30">
-        <v>-5.3861729189962499</v>
-      </c>
-      <c r="F30">
-        <v>-6</v>
-      </c>
-      <c r="G30">
-        <v>17.554884086853701</v>
-      </c>
-      <c r="H30">
-        <v>-0.48812345312844402</v>
-      </c>
-      <c r="I30">
-        <v>0.165509213381802</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1.00024501326256</v>
-      </c>
-      <c r="C31">
-        <v>53.370082928415897</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8.3762576533202894E-5</v>
-      </c>
-      <c r="E31">
-        <v>0.48643817967866398</v>
-      </c>
-      <c r="F31">
-        <v>-6</v>
-      </c>
-      <c r="G31">
-        <v>1.8593030843522</v>
-      </c>
-      <c r="H31">
-        <v>0.32141790500359502</v>
-      </c>
-      <c r="I31">
-        <v>0.16713139032223201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>9.9999065320339806</v>
-      </c>
-      <c r="C32">
-        <v>28.837837618054898</v>
-      </c>
-      <c r="D32">
-        <v>9.9990010804435698</v>
-      </c>
-      <c r="E32">
-        <v>-9.2178071076501195E-2</v>
-      </c>
-      <c r="F32">
-        <v>-6</v>
-      </c>
-      <c r="G32">
-        <v>16.303806815231599</v>
-      </c>
-      <c r="H32">
-        <v>0.300288520622843</v>
-      </c>
-      <c r="I32">
-        <v>0.159822498510793</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2.69832772502164</v>
-      </c>
-      <c r="C33">
-        <v>30.477520450592799</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6.8645836903376498</v>
-      </c>
-      <c r="E33">
-        <v>-0.18533314576169099</v>
-      </c>
-      <c r="F33">
-        <v>-7</v>
-      </c>
-      <c r="G33">
-        <v>9.9645978513358706</v>
-      </c>
-      <c r="H33">
-        <v>0.19749794430812301</v>
-      </c>
-      <c r="I33">
-        <v>4.5293626596981197E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>9.9996497210941602</v>
-      </c>
-      <c r="C34">
-        <v>28.311961580136</v>
-      </c>
-      <c r="D34">
-        <v>3.1899959678093701</v>
-      </c>
-      <c r="E34">
-        <v>-4.7260463307940502E-2</v>
-      </c>
-      <c r="F34">
-        <v>-7</v>
-      </c>
-      <c r="G34">
-        <v>9.7351008525206293</v>
-      </c>
-      <c r="H34">
-        <v>0.21716557970553199</v>
-      </c>
-      <c r="I34">
-        <v>4.4250458420548297E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>9.99998520886761</v>
-      </c>
-      <c r="C35">
-        <v>33.605622135204001</v>
-      </c>
-      <c r="D35">
-        <v>2.3389811661137099</v>
-      </c>
-      <c r="E35">
-        <v>-0.20912955701473299</v>
-      </c>
-      <c r="F35">
-        <v>-7</v>
-      </c>
-      <c r="G35">
-        <v>8.3116195216119007</v>
-      </c>
-      <c r="H35">
-        <v>0.18641423318113301</v>
-      </c>
-      <c r="I35">
-        <v>3.7780088734599503E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>9.9999064882008604</v>
-      </c>
-      <c r="C36">
-        <v>31.424432740924001</v>
-      </c>
-      <c r="D36">
-        <v>5.9052047410638497</v>
-      </c>
-      <c r="E36">
-        <v>-0.22081683877265601</v>
-      </c>
-      <c r="F36">
-        <v>-7</v>
-      </c>
-      <c r="G36">
-        <v>12.000392551327099</v>
-      </c>
-      <c r="H36">
-        <v>0.20142987900119599</v>
-      </c>
-      <c r="I36">
-        <v>5.45472388696688E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>3.0079640035641702</v>
-      </c>
-      <c r="C37">
-        <v>26.391299492012401</v>
-      </c>
-      <c r="D37">
-        <v>6.0728081261278897</v>
-      </c>
-      <c r="E37">
-        <v>0.113510456779558</v>
-      </c>
-      <c r="F37">
-        <v>-7</v>
-      </c>
-      <c r="G37">
-        <v>9.4733565443053998</v>
-      </c>
-      <c r="H37">
-        <v>0.240091358187041</v>
-      </c>
-      <c r="I37">
-        <v>6.0087280081958197E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>9.9977355166380395</v>
-      </c>
-      <c r="C38">
-        <v>24.320931553370102</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4.2767947195950402</v>
-      </c>
-      <c r="E38">
-        <v>0.388190092435166</v>
-      </c>
-      <c r="F38">
-        <v>-7</v>
-      </c>
-      <c r="G38">
-        <v>11.1823588650409</v>
-      </c>
-      <c r="H38">
-        <v>0.28906223159630701</v>
-      </c>
-      <c r="I38">
-        <v>0.109057417797279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>8.0126887492763004</v>
-      </c>
-      <c r="C39">
-        <v>30.505313800819799</v>
-      </c>
-      <c r="D39">
-        <v>1.5288575045736701</v>
-      </c>
-      <c r="E39">
-        <v>-0.187309963096632</v>
-      </c>
-      <c r="F39">
-        <v>-7</v>
-      </c>
-      <c r="G39">
-        <v>7.15602944496717</v>
-      </c>
-      <c r="H39">
-        <v>0.18443399264209001</v>
-      </c>
-      <c r="I39">
-        <v>3.2527406568032602E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1.0725893041184</v>
-      </c>
-      <c r="C40">
-        <v>59.948950254521002</v>
-      </c>
-      <c r="D40">
-        <v>9.9947856763124996</v>
-      </c>
-      <c r="E40">
-        <v>0.71626728256551198</v>
-      </c>
-      <c r="F40">
-        <v>-6</v>
-      </c>
-      <c r="G40">
-        <v>2.95146928514027</v>
-      </c>
-      <c r="H40">
-        <v>0.36085713241577</v>
-      </c>
-      <c r="I40">
-        <v>0.20657014757702299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>6.0339846802684702</v>
-      </c>
-      <c r="C41">
-        <v>28.567615471036198</v>
-      </c>
-      <c r="D41">
-        <v>5.3046395310021204</v>
-      </c>
-      <c r="E41">
-        <v>-7.9540066089293301E-2</v>
-      </c>
-      <c r="F41">
-        <v>-7</v>
-      </c>
-      <c r="G41">
-        <v>10.1659242297861</v>
-      </c>
-      <c r="H41">
-        <v>0.21428211282831799</v>
-      </c>
-      <c r="I41">
         <v>4.62087464990278E-2</v>
       </c>
     </row>
